--- a/biology/Zoologie/Gloydius/Gloydius.xlsx
+++ b/biology/Zoologie/Gloydius/Gloydius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gloydius est un genre de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gloydius est un genre de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les onze espèces de ce genre se rencontrent dans une zone triangulaire comprise entre la Russie, le Japon et le Pakistan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les onze espèces de ce genre se rencontrent dans une zone triangulaire comprise entre la Russie, le Japon et le Pakistan.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des serpents venimeux.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (4 janvier 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (4 janvier 2013) :
 Gloydius blomhoffii (Boie, 1826)
 Gloydius brevicaudus (Stejneger, 1907)
 Gloydius halys (Pallas, 1776)
@@ -616,9 +634,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre, Gloydius, est dédié à Howard Kay Gloyd, herpétologiste spécialiste de ce groupe de Vipéridés[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre, Gloydius, est dédié à Howard Kay Gloyd, herpétologiste spécialiste de ce groupe de Vipéridés.
 </t>
         </is>
       </c>
@@ -647,7 +667,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hoge &amp; Romano-Hoge, 1981 : Poisonous snakes of the world. I. Checklist of the pitvipers: Viperoidea, Viperidae, Crotalinae. Memórias do Instituto Butantan, vol. 42/43, p. 179–309.</t>
         </is>
